--- a/유튜브 강의목록.xlsx
+++ b/유튜브 강의목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E383E98-5A4A-4597-BA03-26855D7957E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D09E7-285A-429D-B6E9-FBF17DAE5237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2020" windowWidth="17860" windowHeight="11260" xr2:uid="{86AB5A3D-5A61-4BEF-B394-A9DCCA135380}"/>
+    <workbookView xWindow="3270" yWindow="2020" windowWidth="17860" windowHeight="13190" xr2:uid="{86AB5A3D-5A61-4BEF-B394-A9DCCA135380}"/>
   </bookViews>
   <sheets>
     <sheet name="한이음" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>

--- a/유튜브 강의목록.xlsx
+++ b/유튜브 강의목록.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D09E7-285A-429D-B6E9-FBF17DAE5237}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22B24F-C43F-4086-8135-D6BA2DFB7EB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2020" windowWidth="17860" windowHeight="13190" xr2:uid="{86AB5A3D-5A61-4BEF-B394-A9DCCA135380}"/>
+    <workbookView xWindow="12610" yWindow="1760" windowWidth="12060" windowHeight="13190" activeTab="1" xr2:uid="{86AB5A3D-5A61-4BEF-B394-A9DCCA135380}"/>
   </bookViews>
   <sheets>
     <sheet name="한이음" sheetId="1" r:id="rId1"/>
+    <sheet name="백준" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>git 재생목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,6 +113,90 @@
   </si>
   <si>
     <t>https://www.youtube.com/user/egoing2/playlists?view=1&amp;sort=dd&amp;flow=grid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N중 for문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재귀 함수 사용하기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트마스크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프의 탐색: DFS, BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러드 필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:49:xx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +244,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,18 +272,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -235,8 +345,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,8 +447,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,20 +470,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="60% - 강조색2" xfId="5" builtinId="36"/>
+    <cellStyle name="강조색2" xfId="4" builtinId="33"/>
     <cellStyle name="강조색5" xfId="1" builtinId="45"/>
     <cellStyle name="강조색6" xfId="2" builtinId="49"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -595,134 +855,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C003B5E-7FC6-4BB4-B87C-588DD16E41B7}">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="15" width="4.58203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="17" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="F14" s="11">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.23055555555555554</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C18" s="11">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -733,4 +1058,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE2C7C5-AA97-4048-8869-42A4C5B37E99}">
+  <dimension ref="B2:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="2.58203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.45">
+      <c r="E2" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.8805555555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.3805555555555555</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.16874999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.7201388888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.4548611111111112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.81111111111111101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="9">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>